--- a/data/evaluation/evaluation_South_Autumn_Onions.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Onions.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4521.139486521055</v>
+        <v>4636.840447691197</v>
       </c>
       <c r="C4" t="n">
-        <v>33915819.00784912</v>
+        <v>32444542.86319419</v>
       </c>
       <c r="D4" t="n">
-        <v>5823.728960713154</v>
+        <v>5696.011136154335</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8197986476960959</v>
+        <v>-0.7408553576104011</v>
       </c>
     </row>
     <row r="5">
